--- a/tool/template/template/error_info.xlsx
+++ b/tool/template/template/error_info.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DED703-CA2F-4E7F-9885-7C2649870440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0F425D5-7336-48BB-AFB1-FBFB58A1B1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="2835" windowWidth="21315" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,155 +125,177 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>非法访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD_NOTSAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次密码不相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERNAME_NOTVALID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名格式错误：6-15位的大小写字母、数字、下划线、星号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码格式错误：6-15位的大小写字母、数字、下划线、星号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD_NOTVALID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD_ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区服正在维护</t>
+  </si>
+  <si>
+    <t>区服正在维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AREA_MAINTENANCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏名已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏名格式错误：2-6位的汉字、大小写字母、数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号内游戏角色已到达上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_SUM_MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAMENAME_NOTVALID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAMENAME_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UID_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UID已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERNAME_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB_ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库操作出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_BAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号已被封禁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_NOTEXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMEOUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP_ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>网络连接出错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>非法访问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSWORD_NOTSAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两次密码不相同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USERNAME_NOTVALID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名格式错误：6-15位的大小写字母、数字、下划线、星号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码格式错误：6-15位的大小写字母、数字、下划线、星号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSWORD_NOTVALID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSWORD_ERROR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区服正在维护</t>
-  </si>
-  <si>
-    <t>区服正在维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AREA_MAINTENANCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏名已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏名格式错误：2-6位的汉字、大小写字母、数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号内游戏角色已到达上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_SUM_MAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAMENAME_NOTVALID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAMENAME_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UID_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UID已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USERNAME_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB_ERROR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库操作出错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_BAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号已被封禁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA_NOTEXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIMEOUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超时</t>
+    <t>SOCKET_ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端Socket请求出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端Http请求出错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -291,9 +322,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -633,11 +667,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -650,7 +684,7 @@
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:256" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +700,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:256" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -682,7 +716,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:256" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -698,7 +732,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:256" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -714,7 +748,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:256" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -730,306 +764,584 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:256" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
+    <row r="7" spans="1:256" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
+      <c r="BJ7" s="2"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="2"/>
+      <c r="BM7" s="2"/>
+      <c r="BN7" s="2"/>
+      <c r="BO7" s="1"/>
+      <c r="BP7" s="2"/>
+      <c r="BQ7" s="2"/>
+      <c r="BR7" s="2"/>
+      <c r="BS7" s="1"/>
+      <c r="BT7" s="2"/>
+      <c r="BU7" s="2"/>
+      <c r="BV7" s="2"/>
+      <c r="BW7" s="1"/>
+      <c r="BX7" s="2"/>
+      <c r="BY7" s="2"/>
+      <c r="BZ7" s="2"/>
+      <c r="CA7" s="1"/>
+      <c r="CB7" s="2"/>
+      <c r="CC7" s="2"/>
+      <c r="CD7" s="2"/>
+      <c r="CE7" s="1"/>
+      <c r="CF7" s="2"/>
+      <c r="CG7" s="2"/>
+      <c r="CH7" s="2"/>
+      <c r="CI7" s="1"/>
+      <c r="CJ7" s="2"/>
+      <c r="CK7" s="2"/>
+      <c r="CL7" s="2"/>
+      <c r="CM7" s="1"/>
+      <c r="CN7" s="2"/>
+      <c r="CO7" s="2"/>
+      <c r="CP7" s="2"/>
+      <c r="CQ7" s="1"/>
+      <c r="CR7" s="2"/>
+      <c r="CS7" s="2"/>
+      <c r="CT7" s="2"/>
+      <c r="CU7" s="1"/>
+      <c r="CV7" s="2"/>
+      <c r="CW7" s="2"/>
+      <c r="CX7" s="2"/>
+      <c r="CY7" s="1"/>
+      <c r="CZ7" s="2"/>
+      <c r="DA7" s="2"/>
+      <c r="DB7" s="2"/>
+      <c r="DC7" s="1"/>
+      <c r="DD7" s="2"/>
+      <c r="DE7" s="2"/>
+      <c r="DF7" s="2"/>
+      <c r="DG7" s="1"/>
+      <c r="DH7" s="2"/>
+      <c r="DI7" s="2"/>
+      <c r="DJ7" s="2"/>
+      <c r="DK7" s="1"/>
+      <c r="DL7" s="2"/>
+      <c r="DM7" s="2"/>
+      <c r="DN7" s="2"/>
+      <c r="DO7" s="1"/>
+      <c r="DP7" s="2"/>
+      <c r="DQ7" s="2"/>
+      <c r="DR7" s="2"/>
+      <c r="DS7" s="1"/>
+      <c r="DT7" s="2"/>
+      <c r="DU7" s="2"/>
+      <c r="DV7" s="2"/>
+      <c r="DW7" s="1"/>
+      <c r="DX7" s="2"/>
+      <c r="DY7" s="2"/>
+      <c r="DZ7" s="2"/>
+      <c r="EA7" s="1"/>
+      <c r="EB7" s="2"/>
+      <c r="EC7" s="2"/>
+      <c r="ED7" s="2"/>
+      <c r="EE7" s="1"/>
+      <c r="EF7" s="2"/>
+      <c r="EG7" s="2"/>
+      <c r="EH7" s="2"/>
+      <c r="EI7" s="1"/>
+      <c r="EJ7" s="2"/>
+      <c r="EK7" s="2"/>
+      <c r="EL7" s="2"/>
+      <c r="EM7" s="1"/>
+      <c r="EN7" s="2"/>
+      <c r="EO7" s="2"/>
+      <c r="EP7" s="2"/>
+      <c r="EQ7" s="1"/>
+      <c r="ER7" s="2"/>
+      <c r="ES7" s="2"/>
+      <c r="ET7" s="2"/>
+      <c r="EU7" s="1"/>
+      <c r="EV7" s="2"/>
+      <c r="EW7" s="2"/>
+      <c r="EX7" s="2"/>
+      <c r="EY7" s="1"/>
+      <c r="EZ7" s="2"/>
+      <c r="FA7" s="2"/>
+      <c r="FB7" s="2"/>
+      <c r="FC7" s="1"/>
+      <c r="FD7" s="2"/>
+      <c r="FE7" s="2"/>
+      <c r="FF7" s="2"/>
+      <c r="FG7" s="1"/>
+      <c r="FH7" s="2"/>
+      <c r="FI7" s="2"/>
+      <c r="FJ7" s="2"/>
+      <c r="FK7" s="1"/>
+      <c r="FL7" s="2"/>
+      <c r="FM7" s="2"/>
+      <c r="FN7" s="2"/>
+      <c r="FO7" s="1"/>
+      <c r="FP7" s="2"/>
+      <c r="FQ7" s="2"/>
+      <c r="FR7" s="2"/>
+      <c r="FS7" s="1"/>
+      <c r="FT7" s="2"/>
+      <c r="FU7" s="2"/>
+      <c r="FV7" s="2"/>
+      <c r="FW7" s="1"/>
+      <c r="FX7" s="2"/>
+      <c r="FY7" s="2"/>
+      <c r="FZ7" s="2"/>
+      <c r="GA7" s="1"/>
+      <c r="GB7" s="2"/>
+      <c r="GC7" s="2"/>
+      <c r="GD7" s="2"/>
+      <c r="GE7" s="1"/>
+      <c r="GF7" s="2"/>
+      <c r="GG7" s="2"/>
+      <c r="GH7" s="2"/>
+      <c r="GI7" s="1"/>
+      <c r="GJ7" s="2"/>
+      <c r="GK7" s="2"/>
+      <c r="GL7" s="2"/>
+      <c r="GM7" s="1"/>
+      <c r="GN7" s="2"/>
+      <c r="GO7" s="2"/>
+      <c r="GP7" s="2"/>
+      <c r="GQ7" s="1"/>
+      <c r="GR7" s="2"/>
+      <c r="GS7" s="2"/>
+      <c r="GT7" s="2"/>
+      <c r="GU7" s="1"/>
+      <c r="GV7" s="2"/>
+      <c r="GW7" s="2"/>
+      <c r="GX7" s="2"/>
+      <c r="GY7" s="1"/>
+      <c r="GZ7" s="2"/>
+      <c r="HA7" s="2"/>
+      <c r="HB7" s="2"/>
+      <c r="HC7" s="1"/>
+      <c r="HD7" s="2"/>
+      <c r="HE7" s="2"/>
+      <c r="HF7" s="2"/>
+      <c r="HG7" s="1"/>
+      <c r="HH7" s="2"/>
+      <c r="HI7" s="2"/>
+      <c r="HJ7" s="2"/>
+      <c r="HK7" s="1"/>
+      <c r="HL7" s="2"/>
+      <c r="HM7" s="2"/>
+      <c r="HN7" s="2"/>
+      <c r="HO7" s="1"/>
+      <c r="HP7" s="2"/>
+      <c r="HQ7" s="2"/>
+      <c r="HR7" s="2"/>
+      <c r="HS7" s="1"/>
+      <c r="HT7" s="2"/>
+      <c r="HU7" s="2"/>
+      <c r="HV7" s="2"/>
+      <c r="HW7" s="1"/>
+      <c r="HX7" s="2"/>
+      <c r="HY7" s="2"/>
+      <c r="HZ7" s="2"/>
+      <c r="IA7" s="1"/>
+      <c r="IB7" s="2"/>
+      <c r="IC7" s="2"/>
+      <c r="ID7" s="2"/>
+      <c r="IE7" s="1"/>
+      <c r="IF7" s="2"/>
+      <c r="IG7" s="2"/>
+      <c r="IH7" s="2"/>
+      <c r="II7" s="1"/>
+      <c r="IJ7" s="2"/>
+      <c r="IK7" s="2"/>
+      <c r="IL7" s="2"/>
+      <c r="IM7" s="1"/>
+      <c r="IN7" s="2"/>
+      <c r="IO7" s="2"/>
+      <c r="IP7" s="2"/>
+      <c r="IQ7" s="1"/>
+      <c r="IR7" s="2"/>
+      <c r="IS7" s="2"/>
+      <c r="IT7" s="2"/>
+      <c r="IU7" s="1"/>
+      <c r="IV7" s="2"/>
+    </row>
+    <row r="8" spans="1:256" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:256" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:256" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:256" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:256" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:256" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:256" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:256" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:256" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>41</v>
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F71" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6 F8:F73">
       <formula1>"blue,green,purple,red"</formula1>
     </dataValidation>
   </dataValidations>
